--- a/biology/Botanique/Heliconia_rostrata/Heliconia_rostrata.xlsx
+++ b/biology/Botanique/Heliconia_rostrata/Heliconia_rostrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconia rostrata est une espèce de plantes à fleur de la famille des Heliconiaceae, originaire d'Amérique centrale (Bélize, Guatemala, Honduras, Panamá) et du nord-ouest de l'Amérique du Sud (Brésil, Bolivie, Colombie, Équateur, Pérou). Elle s'est implantée dans d'autres régions tropicales comme à l'île de la Réunion, dans l'océan Indien.
 C'est une plante herbacée qui peut atteindre 5 m de haut et qui a la particularité d'avoir des inflorescences retombantes et des feuilles longues de 60 cm à 1,2 m rappelant celles des bananiers.
-Elle est l'une des fleurs emblèmes de la Bolivie sous le nom de patujú (avec la cantuta, Cantua buxifolia)[1].
+Elle est l'une des fleurs emblèmes de la Bolivie sous le nom de patujú (avec la cantuta, Cantua buxifolia).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'heliconia rostrata a besoin de chaleur et d’humidité atmosphérique et il est préférable de la conserver à une température supérieure à 18 °C. Elle nécessite un sol riche et humifère, par exemple un terreau de bonne qualité. À chaque fois que la terre est sèche en surface, pour qu’elle développe une croissance foisonnante, l'heliconia demande des arrosages réguliers à l’eau douce.
 </t>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 mars 2012) :
 Bihai rostrata  Griggs (1904)
 Heliconia poeppigiana Eichler ex Petersen (1890)
 Bihai poeppigiana (Eichler ex Petersen) Kuntze. (1891)</t>
